--- a/data/HLTV_Player.xlsx
+++ b/data/HLTV_Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python_project\kook_bot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2035C091-E44D-4237-8462-0E66DE5F585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47A014E-30BE-4960-87BB-0486A279A3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53F0A426-9BD0-4502-9DEB-4219846312D9}"/>
+    <workbookView xWindow="10455" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{53F0A426-9BD0-4502-9DEB-4219846312D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="199">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>APEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vitality</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ROPZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zywoo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AWPer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mazii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jimpphat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xertioN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Niko</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Falcons</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XANTANRES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>woxic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>heavyGod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>波兰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,10 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hallzerk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,10 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>staehr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HooXi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -750,10 +710,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>childKing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L1haNg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,10 +738,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>coldzara</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RED Canids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -798,10 +750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>god b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kennyS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,6 +774,61 @@
   </si>
   <si>
     <t>MAJ_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZywOo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gob b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChildKing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staehr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mezii</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coldzera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jimpphat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NiKo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeavyGod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ropz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XANTARES</t>
+  </si>
+  <si>
+    <t>JT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1310,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9015943F-5FCD-4294-B0FB-7E031BEF836A}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1340,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1348,19 +1351,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3">
         <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3">
         <v>19</v>
@@ -1371,19 +1374,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1">
         <v>10</v>
@@ -1394,19 +1397,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
         <v>8</v>
@@ -1417,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
@@ -1440,19 +1443,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1">
         <v>4</v>
@@ -1463,19 +1466,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
         <v>9</v>
@@ -1486,19 +1489,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <v>5</v>
@@ -1509,19 +1512,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="1">
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -1532,19 +1535,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E11" s="1">
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -1555,19 +1558,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -1578,19 +1581,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E13" s="1">
         <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1">
         <v>6</v>
@@ -1601,19 +1604,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E14" s="1">
         <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1">
         <v>4</v>
@@ -1624,19 +1627,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1">
         <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1">
         <v>6</v>
@@ -1647,19 +1650,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1">
         <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -1670,19 +1673,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1">
         <v>4</v>
@@ -1693,19 +1696,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1">
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1">
         <v>14</v>
@@ -1716,19 +1719,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1">
         <v>27</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1">
         <v>9</v>
@@ -1739,19 +1742,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
         <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G20" s="1">
         <v>4</v>
@@ -1762,19 +1765,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1">
         <v>24</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1">
         <v>6</v>
@@ -1785,19 +1788,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1">
         <v>24</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22" s="1">
         <v>3</v>
@@ -1808,19 +1811,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1">
         <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23" s="1">
         <v>7</v>
@@ -1831,19 +1834,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E24" s="1">
         <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1">
         <v>4</v>
@@ -1854,19 +1857,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1">
         <v>22</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1">
         <v>6</v>
@@ -1877,19 +1880,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E26" s="1">
         <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -1900,19 +1903,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1">
         <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1">
         <v>3</v>
@@ -1923,19 +1926,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E28" s="1">
         <v>34</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -1946,19 +1949,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1">
         <v>29</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1">
         <v>5</v>
@@ -1969,19 +1972,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1">
         <v>26</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
         <v>5</v>
@@ -1992,19 +1995,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1">
         <v>20</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -2015,117 +2018,117 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E32" s="1">
         <v>22</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1">
         <v>23</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G33" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E34" s="1">
         <v>19</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G34" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E35" s="1">
         <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G35" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E36" s="1">
         <v>17</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2133,269 +2136,272 @@
         <v>910</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E37" s="1">
         <v>22</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E38" s="1">
         <v>31</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G38" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E39" s="1">
         <v>29</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G39" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E40" s="1">
         <v>22</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1">
         <v>25</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G41" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E42" s="1">
         <v>22</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E43" s="1">
         <v>35</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G43" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1">
         <v>27</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E45" s="1">
         <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G45" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E46" s="1">
         <v>27</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G46" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E47" s="1">
         <v>22</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G47" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E48" s="1">
         <v>27</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G48" s="1">
         <v>7</v>
@@ -2406,19 +2412,19 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E49" s="1">
         <v>21</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -2429,19 +2435,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E50" s="1">
         <v>19</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -2452,19 +2458,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E51" s="1">
         <v>20</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -2475,19 +2481,19 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E52" s="1">
         <v>17</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2498,19 +2504,19 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E53" s="1">
         <v>27</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G53" s="1">
         <v>11</v>
@@ -2521,19 +2527,19 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E54" s="1">
         <v>25</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G54" s="1">
         <v>3</v>
@@ -2544,19 +2550,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E55" s="1">
         <v>25</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G55" s="1">
         <v>9</v>
@@ -2567,19 +2573,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E56" s="1">
         <v>22</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G56" s="1">
         <v>4</v>
@@ -2590,19 +2596,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E57" s="1">
         <v>21</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -2613,19 +2619,19 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E58" s="1">
         <v>26</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G58" s="1">
         <v>12</v>
@@ -2636,19 +2642,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E59" s="1">
         <v>24</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G59" s="1">
         <v>6</v>
@@ -2659,19 +2665,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E60" s="1">
         <v>22</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G60" s="1">
         <v>3</v>
@@ -2682,19 +2688,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E61" s="1">
         <v>20</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -2705,19 +2711,19 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E62" s="1">
         <v>19</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G62" s="1">
         <v>2</v>
@@ -2728,19 +2734,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E63" s="1">
         <v>28</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G63" s="1">
         <v>7</v>
@@ -2751,19 +2757,19 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E64" s="1">
         <v>27</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -2774,19 +2780,19 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65" s="1">
         <v>27</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G65" s="1">
         <v>3</v>
@@ -2797,19 +2803,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E66" s="1">
         <v>25</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -2820,19 +2826,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E67" s="1">
         <v>21</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -2843,19 +2849,19 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E68" s="1">
         <v>26</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G68" s="1">
         <v>4</v>
@@ -2866,19 +2872,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E69" s="1">
         <v>24</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G69" s="1">
         <v>3</v>
@@ -2889,19 +2895,19 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E70" s="1">
         <v>24</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
@@ -2912,19 +2918,19 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E71" s="1">
         <v>24</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -2935,19 +2941,19 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E72" s="1">
         <v>20</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -2958,19 +2964,19 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E73" s="1">
         <v>29</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G73" s="1">
         <v>16</v>
@@ -2981,19 +2987,19 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E74" s="1">
         <v>23</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G74" s="1">
         <v>4</v>
@@ -3004,19 +3010,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E75" s="1">
         <v>21</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G75" s="1">
         <v>4</v>
@@ -3027,19 +3033,19 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E76" s="1">
         <v>20</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -3050,19 +3056,19 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E77" s="1">
         <v>29</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G77" s="1">
         <v>4</v>
@@ -3073,19 +3079,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E78" s="1">
         <v>24</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G78" s="1">
         <v>2</v>
@@ -3096,19 +3102,19 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E79" s="1">
         <v>28</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G79" s="1">
         <v>4</v>
@@ -3119,19 +3125,19 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E80" s="1">
         <v>24</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G80" s="1">
         <v>2</v>
@@ -3142,19 +3148,19 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E81" s="1">
         <v>20</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G81" s="1">
         <v>3</v>
@@ -3165,19 +3171,19 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E82" s="1">
         <v>18</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G82" s="1">
         <v>1</v>
@@ -3188,19 +3194,19 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E83" s="1">
         <v>26</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G83" s="1">
         <v>3</v>
@@ -3211,19 +3217,19 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E84" s="1">
         <v>22</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G84" s="1">
         <v>1</v>
@@ -3234,19 +3240,19 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E85" s="1">
         <v>22</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G85" s="1">
         <v>1</v>
@@ -3257,19 +3263,19 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E86" s="1">
         <v>24</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G86" s="1">
         <v>0</v>
@@ -3280,19 +3286,19 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E87" s="1">
         <v>20</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G87" s="1">
         <v>0</v>
@@ -3303,19 +3309,19 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E88" s="1">
         <v>28</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G88" s="1">
         <v>2</v>
@@ -3326,19 +3332,19 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E89" s="1">
         <v>23</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G89" s="1">
         <v>3</v>
@@ -3349,19 +3355,19 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E90" s="1">
         <v>30</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G90" s="1">
         <v>5</v>
@@ -3372,19 +3378,19 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E91" s="1">
         <v>21</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G91" s="1">
         <v>0</v>
@@ -3395,19 +3401,19 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E92" s="1">
         <v>21</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -3418,19 +3424,19 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E93" s="1">
         <v>33</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G93" s="1">
         <v>16</v>
@@ -3441,19 +3447,19 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E94" s="1">
         <v>25</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G94" s="1">
         <v>8</v>
@@ -3464,19 +3470,19 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E95" s="1">
         <v>25</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G95" s="1">
         <v>5</v>
@@ -3487,19 +3493,19 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E96" s="1">
         <v>25</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G96" s="1">
         <v>8</v>
@@ -3510,19 +3516,19 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E97" s="1">
         <v>20</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G97" s="1">
         <v>0</v>
@@ -3533,19 +3539,19 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E98" s="1">
         <v>31</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G98" s="1">
         <v>7</v>
@@ -3556,19 +3562,19 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E99" s="1">
         <v>26</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -3579,19 +3585,19 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E100" s="1">
         <v>22</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G100" s="1">
         <v>1</v>
@@ -3602,19 +3608,19 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E101" s="1">
         <v>20</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
@@ -3625,19 +3631,19 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E102" s="1">
         <v>20</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G102" s="1">
         <v>1</v>
@@ -3648,19 +3654,19 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E103" s="1">
         <v>30</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G103" s="1">
         <v>9</v>
@@ -3671,19 +3677,19 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E104" s="1">
         <v>25</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G104" s="1">
         <v>3</v>
@@ -3694,19 +3700,19 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E105" s="1">
         <v>22</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G105" s="1">
         <v>3</v>
@@ -3717,19 +3723,19 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E106" s="1">
         <v>20</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G106" s="1">
         <v>0</v>
@@ -3740,19 +3746,19 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E107" s="1">
         <v>24</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G107" s="1">
         <v>0</v>
@@ -3763,19 +3769,19 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E108" s="1">
         <v>27</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G108" s="1">
         <v>6</v>
@@ -3786,19 +3792,19 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E109" s="1">
         <v>26</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G109" s="1">
         <v>5</v>
@@ -3809,19 +3815,19 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E110" s="1">
         <v>20</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G110" s="1">
         <v>3</v>
@@ -3832,19 +3838,19 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E111" s="1">
         <v>21</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G111" s="1">
         <v>0</v>
@@ -3855,19 +3861,19 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E112" s="1">
         <v>22</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G112" s="1">
         <v>0</v>
@@ -3878,19 +3884,19 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E113" s="1">
         <v>27</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G113" s="1">
         <v>5</v>
@@ -3901,19 +3907,19 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E114" s="1">
         <v>29</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G114" s="1">
         <v>5</v>
@@ -3924,19 +3930,19 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E115" s="1">
         <v>30</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G115" s="1">
         <v>3</v>
@@ -3947,19 +3953,19 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E116" s="1">
         <v>25</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
@@ -3970,19 +3976,19 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E117" s="1">
         <v>21</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G117" s="1">
         <v>1</v>
@@ -3993,19 +3999,19 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E118" s="1">
         <v>28</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G118" s="1">
         <v>4</v>
@@ -4016,19 +4022,19 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E119" s="1">
         <v>23</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G119" s="1">
         <v>0</v>
@@ -4039,19 +4045,19 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E120" s="1">
         <v>20</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G120" s="1">
         <v>1</v>
@@ -4062,19 +4068,19 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E121" s="1">
         <v>24</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G121" s="1">
         <v>0</v>
@@ -4085,19 +4091,19 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E122" s="1">
         <v>20</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G122" s="1">
         <v>0</v>
@@ -4108,19 +4114,19 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E123" s="1">
         <v>30</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G123" s="1">
         <v>11</v>
@@ -4131,19 +4137,19 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E124" s="1">
         <v>32</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G124" s="1">
         <v>4</v>
@@ -4154,19 +4160,19 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E125" s="1">
         <v>37</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G125" s="1">
         <v>8</v>
@@ -4177,19 +4183,19 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E126" s="1">
         <v>29</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G126" s="1">
         <v>14</v>
@@ -4200,19 +4206,19 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E127" s="1">
         <v>34</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G127" s="1">
         <v>12</v>
@@ -4223,19 +4229,19 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E128" s="1">
         <v>36</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G128" s="1">
         <v>12</v>
@@ -4246,19 +4252,19 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E129" s="1">
         <v>33</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G129" s="1">
         <v>14</v>
